--- a/data/Zapallar.xlsx
+++ b/data/Zapallar.xlsx
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,11 +3799,11 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,7 +7303,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">

--- a/data/Zapallar.xlsx
+++ b/data/Zapallar.xlsx
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,11 +3799,11 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,7 +7303,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">

--- a/data/Zapallar.xlsx
+++ b/data/Zapallar.xlsx
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F131" t="n">

--- a/data/Zapallar.xlsx
+++ b/data/Zapallar.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Zapallar.xlsx
+++ b/data/Zapallar.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transporte terrestre de ácido sulfúrico y PLS entre la región de Arica y Parinacota y Valparaíso</t>
+          <t>Transporte terrestre de ácido sulfúrico entre la región de Arica y Parinacota y Atacama</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,11 +3799,11 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,7 +7303,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
